--- a/Monsters.xlsx
+++ b/Monsters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\18Dracula\1.2\Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\18Dracula\MedievalEdition\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E6322-8216-49E9-930B-CA48FC5D8228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95636CC7-F47B-453D-B0B5-366574D69C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="855" windowWidth="22935" windowHeight="16755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15540" yWindow="2370" windowWidth="22935" windowHeight="16755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monsters" sheetId="1" r:id="rId1"/>
@@ -847,8 +847,8 @@
   <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>Costs 180 pts
+        <v>Costs 160 pts
 Movement is 3
 3 are available</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="0"/>
-        <v>Costs 180 pts
+        <v>Costs 160 pts
 Movement is 3
 3 are available</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>Costs 180 pts
+        <v>Costs 160 pts
 Movement is 3
 3 are available</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G17" t="str">
         <f>IF(LEN(Monsters!C17) &gt; 0, _xlfn.CONCAT(Monsters!C17, " pts"),"")</f>
-        <v>180 pts</v>
+        <v>160 pts</v>
       </c>
       <c r="H17" t="str">
         <f>IF(LEN(Monsters!I17) &gt; 0, _xlfn.CONCAT("Eaten by ", Monsters!I17), "Permanent")</f>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G18" t="str">
         <f>IF(LEN(Monsters!C18) &gt; 0, _xlfn.CONCAT(Monsters!C18, " pts"),"")</f>
-        <v>180 pts</v>
+        <v>160 pts</v>
       </c>
       <c r="H18" t="str">
         <f>IF(LEN(Monsters!I18) &gt; 0, _xlfn.CONCAT("Eaten by ", Monsters!I18), "Permanent")</f>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="G19" t="str">
         <f>IF(LEN(Monsters!C19) &gt; 0, _xlfn.CONCAT(Monsters!C19, " pts"),"")</f>
-        <v>180 pts</v>
+        <v>160 pts</v>
       </c>
       <c r="H19" t="str">
         <f>IF(LEN(Monsters!I19) &gt; 0, _xlfn.CONCAT("Eaten by ", Monsters!I19), "Permanent")</f>
@@ -8866,7 +8866,7 @@
         <v>As many nurses can operate in a city as there are open routes.</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f>Monsters!A3</f>
         <v>"Nurſe"</v>
@@ -8910,7 +8910,7 @@
         <v>As many nurses can operate in a city as there are open routes.</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>Monsters!A4</f>
         <v>"Nurſe"</v>
@@ -8954,7 +8954,7 @@
         <v>As many nurses can operate in a city as there are open routes.</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>Monsters!A5</f>
         <v>"Nurſe"</v>
@@ -8998,7 +8998,7 @@
         <v>As many nurses can operate in a city as there are open routes.</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>Monsters!A6</f>
         <v>Steelclaw</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>Monsters!A7</f>
         <v>Skeleton</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>Monsters!A8</f>
         <v>Skeleton</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>Monsters!A9</f>
         <v>Skeleton</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>Monsters!A10</f>
         <v>Skeleton</v>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>Monsters!A11</f>
         <v>Zombie</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>Monsters!A12</f>
         <v>Zombie</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>Monsters!A13</f>
         <v>Zombie</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>Monsters!A14</f>
         <v>Zombie</v>
@@ -9482,7 +9482,7 @@
         <v>Eaten and removed if Fang hired by hiring front. Only one Swearwolf can operate in a city.</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>Monsters!A17</f>
         <v>Suckling</v>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D17" s="8">
         <f>Monsters!C17</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E17" s="8">
         <f>Monsters!I17</f>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>Monsters!A18</f>
         <v>Suckling</v>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D18" s="8">
         <f>Monsters!C18</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E18" s="8">
         <f>Monsters!I18</f>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>Monsters!A19</f>
         <v>Suckling</v>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="D19" s="8">
         <f>Monsters!C19</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E19" s="8">
         <f>Monsters!I19</f>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>Monsters!A20</f>
         <v>"Hatchet" Murray</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>Monsters!A25</f>
         <v>Haunted</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>Monsters!A30</f>
         <v>Count</v>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>Monsters!A31</f>
         <v>Count</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>Monsters!A32</f>
         <v>Captain Harker</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f>Monsters!A33</f>
         <v>Renfield</v>
@@ -10232,7 +10232,7 @@
         <v>Can be traded in for Count Dracula (when available) for 200</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f>Monsters!A34</f>
         <v>Werewolf</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f>Monsters!A35</f>
         <v>Werewolf</v>
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="str">
         <f>Monsters!A41</f>
         <v>The Headleſs Duke</v>
@@ -10585,7 +10585,7 @@
         <v>Can move through token blocked cities</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f>Monsters!A42</f>
         <v>Grouſtfrat, the Necromancer</v>
@@ -10628,7 +10628,7 @@
         <v>Functions as 4 skeletons</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="str">
         <f>Monsters!A43</f>
         <v>Doctor Frankenſtein</v>
@@ -10673,7 +10673,7 @@
         <v>Does not require a token on route.</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f>Monsters!A44</f>
         <v>Count Vlad</v>
@@ -10718,7 +10718,7 @@
         <v>Can jump once between two tokens belonging to the employer during the route</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="str">
         <f>Monsters!A45</f>
         <v>Count Dracula</v>
@@ -10763,7 +10763,7 @@
         <v>Can use Dracula's Moving Castle as a token</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f>Monsters!A46</f>
         <v>Duke Lupin</v>
@@ -10987,7 +10987,7 @@
         <v>Costs 800 if trading in Werewolf</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="str">
         <f>Monsters!A51</f>
         <v>Werewolf Lord</v>
@@ -11032,7 +11032,7 @@
         <v>Costs 800 if trading in Werewolf</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f>Monsters!A52</f>
         <v>Werewolf Lord</v>
@@ -11077,7 +11077,7 @@
         <v>Costs 800 if trading in Werewolf</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="str">
         <f>Monsters!A53</f>
         <v>Werewolf Lord</v>
@@ -11122,7 +11122,7 @@
         <v>Costs 800 if trading in Werewolf</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f>Monsters!A54</f>
         <v>Werewolf Lord</v>
@@ -11167,7 +11167,7 @@
         <v>Costs 800 if trading in Werewolf</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="str">
         <f>Monsters!A55</f>
         <v>Vampire Lord</v>
@@ -11212,7 +11212,7 @@
         <v>Costs 800 if trading in Vampire</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>Monsters!A56</f>
         <v>Vampire Lord</v>
@@ -11302,7 +11302,7 @@
         <v>Costs 800 if trading in Vampire</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>Monsters!A58</f>
         <v>Vampire Lord</v>
@@ -11347,7 +11347,7 @@
         <v>Costs 800 if trading in Vampire</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="str">
         <f>Monsters!A59</f>
         <v>Vampire Lord</v>
@@ -11392,7 +11392,7 @@
         <v>Costs 800 if trading in Vampire</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>Monsters!A60</f>
         <v>Vampire Lord</v>
@@ -11437,7 +11437,7 @@
         <v>Costs 800 if trading in Vampire</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="str">
         <f>Monsters!A61</f>
         <v>Vampire Lord</v>
@@ -11662,7 +11662,7 @@
         <v>Costs 900 if trading Assassin</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>Monsters!A66</f>
         <v>Maſter Aſsaſsin</v>
@@ -11707,7 +11707,7 @@
         <v>Costs 900 if trading Assassin</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="str">
         <f>Monsters!A67</f>
         <v>Maſter Aſsaſsin</v>
@@ -11752,7 +11752,7 @@
         <v>Costs 900 if trading Assassin</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>Monsters!A68</f>
         <v>Maſter Aſsaſsin</v>
@@ -11797,7 +11797,7 @@
         <v>Costs 900 if trading Assassin</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="str">
         <f>Monsters!A69</f>
         <v>Maſter Aſsaſsin</v>
